--- a/biology/Médecine/Encéphalopathie_glycinique/Encéphalopathie_glycinique.xlsx
+++ b/biology/Médecine/Encéphalopathie_glycinique/Encéphalopathie_glycinique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Enc%C3%A9phalopathie_glycinique</t>
+          <t>Encéphalopathie_glycinique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'encéphalopathie glycinique est une anomalie du métabolisme de la glycine qui s'accumule dans tous les tissus de l'organisme.
 La forme la plus classique et la plus fréquente est la forme néonatale, débutant dès les premières heures de la vie, qui est rapidement mortelle. Les survivants ont un profond retard mental et des convulsions.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Enc%C3%A9phalopathie_glycinique</t>
+          <t>Encéphalopathie_glycinique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Autre noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Déficit en glycine synthase
 Hyperglycinémie sans cétose</t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Enc%C3%A9phalopathie_glycinique</t>
+          <t>Encéphalopathie_glycinique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Trois mutations génétiques sont connues la plus fréquente est la mutation du gène GCSP
 Mutation du gène GCSP (en) 238300 du chromosome 9 codant la protéine P
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Enc%C3%A9phalopathie_glycinique</t>
+          <t>Encéphalopathie_glycinique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Incidence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Incidence d'une naissance sur 50 000 en Finlande
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Enc%C3%A9phalopathie_glycinique</t>
+          <t>Encéphalopathie_glycinique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,14 +628,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Positif
-Les nouveau-nés ou enfants présentant un coma ou des convulsions sont suspects d'encéphalopathie glycinique.
-Dosage quantitatif
-Augmentation du taux de glycine dans le sang, les urines et le liquide céphalo-rachidien. Le dosage de glycine doit être fait simultanément pour obtenir le profil glycinique.
-Recherche d'une anomalie dans le métabolisme de la glycine
-Le diagnostic fiable nécessite 80 mg de tissu hépatique obtenu par biopsie ou lors de l'autopsie.
-Diagnostic génétique
-La recherche des mutations est possible.</t>
+          <t>Positif</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nouveau-nés ou enfants présentant un coma ou des convulsions sont suspects d'encéphalopathie glycinique.
+</t>
         </is>
       </c>
     </row>
@@ -627,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Enc%C3%A9phalopathie_glycinique</t>
+          <t>Encéphalopathie_glycinique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,10 +660,132 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Positif</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Dosage quantitatif</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Augmentation du taux de glycine dans le sang, les urines et le liquide céphalo-rachidien. Le dosage de glycine doit être fait simultanément pour obtenir le profil glycinique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Encéphalopathie_glycinique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enc%C3%A9phalopathie_glycinique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Positif</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Recherche d'une anomalie dans le métabolisme de la glycine</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le diagnostic fiable nécessite 80 mg de tissu hépatique obtenu par biopsie ou lors de l'autopsie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Encéphalopathie_glycinique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enc%C3%A9phalopathie_glycinique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Positif</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Diagnostic génétique</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La recherche des mutations est possible.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Encéphalopathie_glycinique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enc%C3%A9phalopathie_glycinique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Aucun traitement efficace existe.
 Le benzoate de sodium à la dose de 250 à 750 mg par jour permet de normaliser la glycine et de réduire les convulsions,
@@ -654,70 +794,112 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Enc%C3%A9phalopathie_glycinique</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Enc%C3%A9phalopathie_glycinique</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Encéphalopathie_glycinique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enc%C3%A9phalopathie_glycinique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Conseil génétique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Transmission
-Transmission autosomique récessive
-Diagnostic prénatal
-Le diagnostic génétique n'est possible que si la mutation en cause est connue.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Transmission</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Transmission autosomique récessive
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Encéphalopathie_glycinique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enc%C3%A9phalopathie_glycinique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Conseil génétique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Diagnostic prénatal</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic génétique n'est possible que si la mutation en cause est connue.
 Le dosage biologique de la glycine dans le liquide amniotique n'a aucun intérêt.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Enc%C3%A9phalopathie_glycinique</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Enc%C3%A9phalopathie_glycinique</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Encéphalopathie_glycinique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enc%C3%A9phalopathie_glycinique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr) Site en français de renseignement sur les maladies rares et les médicaments orphelins
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:605899[1]
-(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [2]
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:605899
+(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine                     </t>
         </is>
       </c>
